--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_4.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,491 +508,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_9</t>
+          <t>model_1_4_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9692077282543988</v>
+        <v>0.9116218851832519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7855876364456948</v>
+        <v>0.6883414247749312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7695526166650144</v>
+        <v>0.6966246977569224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9452717445789438</v>
+        <v>0.8477626506319107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1281736531971923</v>
+        <v>0.3678762623404605</v>
       </c>
       <c r="G2" t="n">
-        <v>1.433776462365792</v>
+        <v>2.08406232758582</v>
       </c>
       <c r="H2" t="n">
-        <v>0.824296928082219</v>
+        <v>1.085155865412766</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1030668605287628</v>
+        <v>0.3576223064126288</v>
       </c>
       <c r="J2" t="n">
-        <v>0.832566044122142</v>
+        <v>1.249006510013679</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3580134818651279</v>
+        <v>0.6065280392038447</v>
       </c>
       <c r="L2" t="n">
-        <v>2.970705391718475</v>
+        <v>0.879655333015492</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3636518363223197</v>
+        <v>0.6160802495157042</v>
       </c>
       <c r="N2" t="n">
-        <v>134.1087385377975</v>
+        <v>36.00001728199165</v>
       </c>
       <c r="O2" t="n">
-        <v>275.4439110810139</v>
+        <v>72.96460087021748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_8</t>
+          <t>model_1_4_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9685674013028948</v>
+        <v>0.9100163315386957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7850286314626382</v>
+        <v>0.6864131254952653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7687492967237397</v>
+        <v>0.6973327437465375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9441384808860966</v>
+        <v>0.8468532429736468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1308390312275297</v>
+        <v>0.3745594222491229</v>
       </c>
       <c r="G3" t="n">
-        <v>1.437514531261473</v>
+        <v>2.096956873747947</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8271703569329923</v>
+        <v>1.082623225962777</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1052010767590147</v>
+        <v>0.3597586051958613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8420894691892048</v>
+        <v>1.246452352768273</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3617167831709357</v>
+        <v>0.6120125997470337</v>
       </c>
       <c r="L3" t="n">
-        <v>3.011686316614735</v>
+        <v>0.8774690472016281</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3674134609217508</v>
+        <v>0.6216511864048994</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0675749611848</v>
+        <v>35.96400963543915</v>
       </c>
       <c r="O3" t="n">
-        <v>275.4027475044012</v>
+        <v>72.92859322366496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_7</t>
+          <t>model_1_4_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9679634279992149</v>
+        <v>0.9094583736664181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7845822483380018</v>
+        <v>0.6857509826044679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7683051458912546</v>
+        <v>0.6975610356860308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9428667971517609</v>
+        <v>0.8465283221243765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1333530862282716</v>
+        <v>0.3768819367881864</v>
       </c>
       <c r="G4" t="n">
-        <v>1.440499497271322</v>
+        <v>2.101384626307598</v>
       </c>
       <c r="H4" t="n">
-        <v>0.828759058707446</v>
+        <v>1.081806638932337</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1075959722124708</v>
+        <v>0.3605218800689457</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8528973665884142</v>
+        <v>1.245584551472189</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3651754184337599</v>
+        <v>0.6139071076214921</v>
       </c>
       <c r="L4" t="n">
-        <v>3.050340608050249</v>
+        <v>0.8767092747798034</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3709265662325977</v>
+        <v>0.6235755308845674</v>
       </c>
       <c r="N4" t="n">
-        <v>134.0295097696057</v>
+        <v>35.95164661119721</v>
       </c>
       <c r="O4" t="n">
-        <v>275.3646823128221</v>
+        <v>72.91623019942303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_6</t>
+          <t>model_1_4_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.963332356151877</v>
+        <v>0.9031878170259077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.780673249507721</v>
+        <v>0.6785455622424909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7613485671599013</v>
+        <v>0.6995842059202193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.93286173211101</v>
+        <v>0.8426089030860422</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1526300464277661</v>
+        <v>0.4029832962083127</v>
       </c>
       <c r="G5" t="n">
-        <v>1.466638990448694</v>
+        <v>2.149567305446048</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8536423374638864</v>
+        <v>1.074569876314795</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1264379878258452</v>
+        <v>0.3697290272119089</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9202721336433777</v>
+        <v>1.236455051282924</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3906789557011819</v>
+        <v>0.6348096535248284</v>
       </c>
       <c r="L5" t="n">
-        <v>3.346729206279875</v>
+        <v>0.8681706444608104</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3968317587177975</v>
+        <v>0.6448072709910011</v>
       </c>
       <c r="N5" t="n">
-        <v>133.7594765657402</v>
+        <v>35.81772033301816</v>
       </c>
       <c r="O5" t="n">
-        <v>275.0946491089566</v>
+        <v>72.78230392124398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_5</t>
+          <t>model_1_4_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9627097759980647</v>
+        <v>0.9024858522635657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7798265324690301</v>
+        <v>0.6777648380568234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7607043937556054</v>
+        <v>0.6997563245656794</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9319178413628391</v>
+        <v>0.8421429627483641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1552215529389277</v>
+        <v>0.4059052432717972</v>
       </c>
       <c r="G6" t="n">
-        <v>1.472300991185194</v>
+        <v>2.154788011670511</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8559465083797329</v>
+        <v>1.073954217899997</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1282155678957315</v>
+        <v>0.3708235724000822</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9253835703131364</v>
+        <v>1.235494575483719</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3939816657395718</v>
+        <v>0.6371069323683405</v>
       </c>
       <c r="L6" t="n">
-        <v>3.386574336123857</v>
+        <v>0.8672147775503873</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4001864831377932</v>
+        <v>0.6471407296798621</v>
       </c>
       <c r="N6" t="n">
-        <v>133.7258036176914</v>
+        <v>35.80327107515296</v>
       </c>
       <c r="O6" t="n">
-        <v>275.0609761609077</v>
+        <v>72.76785466337877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_4</t>
+          <t>model_1_4_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9604566854052698</v>
+        <v>0.891899933552095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7777476786516241</v>
+        <v>0.6664363539943077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7574643121729124</v>
+        <v>0.7013254205383994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9274288948134647</v>
+        <v>0.8346036846771381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1646001026818187</v>
+        <v>0.4499694125187947</v>
       </c>
       <c r="G7" t="n">
-        <v>1.486202296234429</v>
+        <v>2.230541636759426</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8675360923303008</v>
+        <v>1.068341652586989</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1366693661095776</v>
+        <v>0.3885341672292061</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9528370633798844</v>
+        <v>1.223306461293023</v>
       </c>
       <c r="K7" t="n">
-        <v>0.40570938204806</v>
+        <v>0.6707975943000949</v>
       </c>
       <c r="L7" t="n">
-        <v>3.53077213406273</v>
+        <v>0.8527999095177463</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4120988992547248</v>
+        <v>0.6813619858587355</v>
       </c>
       <c r="N7" t="n">
-        <v>133.608472733826</v>
+        <v>35.59715134141688</v>
       </c>
       <c r="O7" t="n">
-        <v>274.9436452770424</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_1_4_3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9596560402975784</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.777029627040517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7565094745649243</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9260308205217249</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1679328093172726</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.491003910664226</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8709514910894089</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1393022862881396</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9623768945175176</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.4097960582012382</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.582013420954979</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.4162499364721381</v>
-      </c>
-      <c r="N8" t="n">
-        <v>133.5683826482361</v>
-      </c>
-      <c r="O8" t="n">
-        <v>274.9035551914525</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_1_4_2</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9588616531159843</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7763094690247627</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7555340174738534</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.924565291917307</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1712394671682803</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.495819610631598</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8744406445439177</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1420622396451463</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9709445613235721</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.4138109075027872</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.632854200577007</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.4203280156368096</v>
-      </c>
-      <c r="N9" t="n">
-        <v>133.5293846186361</v>
-      </c>
-      <c r="O9" t="n">
-        <v>274.8645571618525</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_1_4_1</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9580618761219524</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7757575986373995</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.754531605929765</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9231924696076876</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1745685602574507</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.499509970453025</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8780262125139611</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1446476040867444</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9829590967291164</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.4178140259223602</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.684039928195048</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.4243941791698406</v>
-      </c>
-      <c r="N10" t="n">
-        <v>133.4908754380894</v>
-      </c>
-      <c r="O10" t="n">
-        <v>274.8260479813058</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_1_4_0</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9559595383221884</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7754222052105829</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7564799724046255</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9151491741406637</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1833195974747289</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.501752747842493</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.8710570186061644</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1597951216846185</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9786078715696226</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4281583789612541</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.818589547379943</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.4349014454285378</v>
-      </c>
-      <c r="N11" t="n">
-        <v>133.3930484301914</v>
-      </c>
-      <c r="O11" t="n">
-        <v>274.7282209734078</v>
+        <v>72.5617349296427</v>
       </c>
     </row>
   </sheetData>
